--- a/custom/tpl/LP-3.xlsx
+++ b/custom/tpl/LP-3.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\smep19\custom\tpl\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A03FB343-9DF0-4176-AFA5-2AEED350927C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{1D6F417A-B953-4603-89F0-B53915B5D724}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10425"/>
   </bookViews>
   <sheets>
     <sheet name="Lembar1" sheetId="1" r:id="rId1"/>
@@ -140,9 +134,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -231,7 +225,7 @@
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
@@ -263,10 +257,10 @@
     </xf>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="Koma [0]" xfId="1" builtinId="6"/>
+    <cellStyle name="Comma [0]" xfId="1" builtinId="6"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{EFB0D68D-D33B-4DB3-98FB-C55BD7D736E8}"/>
-    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{F3171313-7A93-40A8-8359-ADA880ED46D5}"/>
+    <cellStyle name="Normal 2" xfId="2"/>
+    <cellStyle name="Normal 2 2" xfId="3"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -324,7 +318,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -376,7 +370,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -570,34 +564,34 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0E46E48-2F27-47A1-B7AE-2983BC66A50A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U13"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="C1" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="R16" sqref="R16"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.7265625" customWidth="1"/>
-    <col min="2" max="2" width="26.7265625" customWidth="1"/>
-    <col min="3" max="3" width="7.7265625" customWidth="1"/>
-    <col min="4" max="8" width="13.54296875" customWidth="1"/>
-    <col min="9" max="9" width="11.7265625" customWidth="1"/>
+    <col min="1" max="1" width="4.7109375" customWidth="1"/>
+    <col min="2" max="2" width="26.7109375" customWidth="1"/>
+    <col min="3" max="3" width="7.7109375" customWidth="1"/>
+    <col min="4" max="8" width="13.5703125" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" customWidth="1"/>
     <col min="10" max="13" width="11" customWidth="1"/>
-    <col min="14" max="18" width="10.54296875" customWidth="1"/>
-    <col min="19" max="19" width="22.7265625" customWidth="1"/>
-    <col min="20" max="21" width="10.54296875" customWidth="1"/>
+    <col min="14" max="18" width="10.5703125" customWidth="1"/>
+    <col min="19" max="19" width="22.7109375" customWidth="1"/>
+    <col min="20" max="21" width="10.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="14.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:21" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="9" t="s">
         <v>25</v>
       </c>
@@ -622,7 +616,7 @@
       <c r="T1" s="9"/>
       <c r="U1" s="9"/>
     </row>
-    <row r="2" spans="1:21" ht="14.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:21" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="9" t="s">
         <v>26</v>
       </c>
@@ -647,14 +641,14 @@
       <c r="T2" s="9"/>
       <c r="U2" s="9"/>
     </row>
-    <row r="3" spans="1:21" ht="14.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="4" spans="1:21" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:21" ht="14.45" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="4" spans="1:21" ht="14.45" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="1"/>
     </row>
-    <row r="5" spans="1:21" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:21" ht="14.45" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
@@ -662,14 +656,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:21" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:21" ht="14.45" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C6" s="1"/>
     </row>
-    <row r="7" spans="1:21" ht="14.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="8" spans="1:21" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:21" ht="14.45" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="8" spans="1:21" ht="14.45" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>27</v>
       </c>
@@ -678,7 +672,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:21" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:21" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>5</v>
       </c>
@@ -729,7 +723,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:21" ht="24" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:21" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="8"/>
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
@@ -770,7 +764,7 @@
       <c r="T10" s="8"/>
       <c r="U10" s="10"/>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:21" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A11" s="5">
         <v>1</v>
       </c>
@@ -835,7 +829,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:21" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -858,7 +852,7 @@
       <c r="T12" s="3"/>
       <c r="U12" s="3"/>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:21" ht="14.45" x14ac:dyDescent="0.35">
       <c r="D13" s="4"/>
     </row>
   </sheetData>
